--- a/PRDetails.xlsx
+++ b/PRDetails.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705"/>
   </bookViews>
   <sheets>
-    <sheet name="PRsList 11-Nov-20 to 12-Dec-20" sheetId="2" r:id="rId1"/>
+    <sheet name="PRsList 01-Nov-20 to 12-Dec-20" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -54,69 +54,165 @@
     <t>Repository Name</t>
   </si>
   <si>
+    <t>MDExOlB1bGxSZXF1ZXN0NjUzODY=</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/api/v3/repos/vanguard/logistics-storagespaceitem/issues/538</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/vanguard/logistics-storagespaceitem/pull/538</t>
+  </si>
+  <si>
     <t>closed</t>
   </si>
   <si>
-    <t>1161017 - reduce max shelves check api for update internal isa</t>
-  </si>
-  <si>
-    <t>MDExOlB1bGxSZXF1ZXN0NjUwMDQ=</t>
-  </si>
-  <si>
-    <t>https://github-rd.carefusion.com/api/v3/repos/vanguard/logistics-storagespaces/issues/339</t>
-  </si>
-  <si>
-    <t>https://github-rd.carefusion.com/vanguard/logistics-storagespaces/pull/339</t>
-  </si>
-  <si>
-    <t>1155074:  Sending new error code in remove storage space api, as it w…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">## Details:_x000D_
+    <t>permisssion added for non-meditem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bug fix 1134034, nonmed item permission added_x000D_
+[BD.VPLX.-.Code.Review.Checklist (1).xlsx](https://github-rd.carefusion.com/vanguard/logistics-storagespaceitem/files/1294/BD.VPLX.-.Code.Review.Checklist.1.xlsx)_x000D_
+</t>
+  </si>
+  <si>
+    <t>logistics-storagespaceitem</t>
+  </si>
+  <si>
+    <t>MDExOlB1bGxSZXF1ZXN0NjUyMjg=</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/api/v3/repos/vanguard/logistics-storagespaceiteminventory/issues/242</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/vanguard/logistics-storagespaceiteminventory/pull/242</t>
+  </si>
+  <si>
+    <t>Refactoring and Exception handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did minor refactoring changes in controllers and services_x000D_
+Removed Unused using_x000D_
+Improved readability of code_x000D_
+and some other misc. refactoring_x000D_
+Removed most of the warning in build complying to document - Level 1 - Code Quality Dashboard_x000D_
 _x000D_
-This PR contains changes for sending a new error code in case filled storage spaces removal request. This is required as previously used error code was getting conflict with other operation and a wrong message was displayed to the user at UI._x000D_
-For more details please refer 1155074 in TFS. </t>
-  </si>
-  <si>
-    <t>logistics-storagespaces</t>
-  </si>
-  <si>
-    <t>MDExOlB1bGxSZXF1ZXN0NjQ4Njg=</t>
-  </si>
-  <si>
-    <t>https://github-rd.carefusion.com/api/v3/repos/vanguard/logistics-storagespaces/issues/338</t>
-  </si>
-  <si>
-    <t>https://github-rd.carefusion.com/vanguard/logistics-storagespaces/pull/338</t>
-  </si>
-  <si>
-    <t>Removed warnings and code refactoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on refactoring_x000D_
-Removed warnings_x000D_
-Freed up unused local variables_x000D_
+The changes were done based on:-_x000D_
+https://docs.google.com/document/d/1wcw2yAqWnyi8MJ1FNe3WEDRgu6spEwdIW1r9R5Mkn34/edit?ts=5f9657a7_x000D_
+https://docs.google.com/spreadsheets/d/1brqgw1bhLVwInuqmJrQkh56VPoCkdcN_/edit#gid=950565663_x000D_
+_x000D_
+[ExecptionHandling_Logging-Guidelines.docx](https://github-rd.carefusion.com/vanguard/logistics-storagespaceiteminventory/files/1280/ExecptionHandling_Logging-Guidelines.docx)_x000D_
+</t>
+  </si>
+  <si>
+    <t>logistics-storagespaceiteminventory</t>
+  </si>
+  <si>
+    <t>MDExOlB1bGxSZXF1ZXN0NjUxOTk=</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/api/v3/repos/vanguard/logistics-storagespaceitem/issues/534</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/vanguard/logistics-storagespaceitem/pull/534</t>
+  </si>
+  <si>
+    <t>Did minor refactoring changes in multiple files_x000D_
+Removed unused and commented code in multiple files_x000D_
+Improved readability of code and some other miscellaneous refactoring_x000D_
+Removed most of the warnings in build complying_x000D_
+Renamed some variables_x000D_
+Added read only wherever required</t>
+  </si>
+  <si>
+    <t>MDExOlB1bGxSZXF1ZXN0NjQ4NTM=</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/api/v3/repos/vanguard/logistics-storagespaceitem/issues/531</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/vanguard/logistics-storagespaceitem/pull/531</t>
+  </si>
+  <si>
+    <t>Hotfix feature/1160537 cr publishmethodchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CycleCount Scheduler Event model now integrated into StorageSpaceItemEvent_x000D_
+_x000D_
+[BD.VPLX.-.Code.Review.Checklist1.xlsx](https://github-rd.carefusion.com/vanguard/logistics-storagespaceitem/files/1219/BD.VPLX.-.Code.Review.Checklist1.xlsx)_x000D_
+</t>
+  </si>
+  <si>
+    <t>MDExOlB1bGxSZXF1ZXN0NjQ2MzE=</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/api/v3/repos/vanguard/logistics-storagespaceItem-orchestrator/issues/181</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/vanguard/logistics-storagespaceItem-orchestrator/pull/181</t>
+  </si>
+  <si>
+    <t>Did some refactoring including _x000D_
+naming changes,_x000D_
+making test cases async,_x000D_
+and some misc</t>
+  </si>
+  <si>
+    <t>logistics-storagespaceItem-orchestrator</t>
+  </si>
+  <si>
+    <t>MDExOlB1bGxSZXF1ZXN0NjQ1NTU=</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/api/v3/repos/vanguard/logistics-storagespaceiteminventory/issues/238</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/vanguard/logistics-storagespaceiteminventory/pull/238</t>
+  </si>
+  <si>
+    <t>Updated SupportData</t>
+  </si>
+  <si>
+    <t>_x000D_
+_x000D_
+SupportData was not getting updated on change assign. Added code to update the support data._x000D_
+_x000D_
+[Checklist.xlsx](https://github-rd.carefusion.com/vanguard/logistics-storagespaceiteminventory/files/1227/Checklist.xlsx)</t>
+  </si>
+  <si>
+    <t>MDExOlB1bGxSZXF1ZXN0NjQyMTY=</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/api/v3/repos/vanguard/logistics-storagespaceItem-orchestrator/issues/179</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/vanguard/logistics-storagespaceItem-orchestrator/pull/179</t>
+  </si>
+  <si>
+    <t>Handling Occupied slots from the storagespaces service itself rather …</t>
+  </si>
+  <si>
+    <t>## Context_x000D_
+This PR is an extension to already merged PR for performance improvement changes suggested in the discussion done against 1151780 with team(architect &amp; dev) to cater the changes for On Demand layout against some ISA._x000D_
+PR contains handling of occupied slots from storagespaces service itself rather relying on UI as after changes done for layout performance this information will not be there at UI. Attached is the doc for more details._x000D_
+[Rendering of ISA Layout.docx](https://github-rd.carefusion.com/vanguard/logistics-storagespaceItem-orchestrator/files/1075/Rendering.of.ISA.Layout.docx)_x000D_
 _x000D_
 _x000D_
-[Level 1 - Code Quality Dashboard.xlsx](https://github-rd.carefusion.com/vanguard/logistics-storagespaces/files/1210/Level.1.-.Code.Quality.Dashboard.xlsx)_x000D_
-[Checklist.xlsx](https://github-rd.carefusion.com/vanguard/logistics-storagespaces/files/1211/Checklist.xlsx)_x000D_
-_x000D_
-[BD - From Reactive To Proactive.docx](https://github-rd.carefusion.com/vanguard/logistics-storagespaces/files/1209/BD.-.From.Reactive.To.Proactive.docx)_x000D_
-_x000D_
-</t>
-  </si>
-  <si>
-    <t>MDExOlB1bGxSZXF1ZXN0NjQxNDA=</t>
-  </si>
-  <si>
-    <t>https://github-rd.carefusion.com/api/v3/repos/vanguard/logistics-storagespaces/issues/332</t>
-  </si>
-  <si>
-    <t>https://github-rd.carefusion.com/vanguard/logistics-storagespaces/pull/332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR consists of new api to get max shelves in a facility and an ISA. Also PR consists of attached doc for the approach of CR._x000D_
-[Design Note_for CR 1161017 and 1161018.docx](https://github-rd.carefusion.com/vanguard/logistics-storagespaces/files/1083/Design.Note_for.CR.1161017.and.1161018.docx)_x000D_
+Note: This is an extension to the previously merged PR#178, for more details please refer it.</t>
+  </si>
+  <si>
+    <t>MDExOlB1bGxSZXF1ZXN0NjQxMzk=</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/api/v3/repos/vanguard/logistics-storagespaceItem-orchestrator/issues/177</t>
+  </si>
+  <si>
+    <t>https://github-rd.carefusion.com/vanguard/logistics-storagespaceItem-orchestrator/pull/177</t>
+  </si>
+  <si>
+    <t>1161017 - reduce max shelves check api for update internal isa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR consists of new api for http hit to the storage spaces first to get max shelves in a facility and an ISA followed by the http hit to ISA to update an internal ISA. Also PR consists of attached doc for the approach of CR._x000D_
+[Design Note_for CR 1161017 and 1161018.docx](https://github-rd.carefusion.com/vanguard/logistics-storagespaceItem-orchestrator/files/1084/Design.Note_for.CR.1161017.and.1161018.docx)_x000D_
 </t>
   </si>
 </sst>
@@ -438,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,65 +571,65 @@
     </row>
     <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>86025</v>
+        <v>86745</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>538</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>339</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>85879</v>
+        <v>86264</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3">
+        <v>242</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>338</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>84865</v>
+        <v>86234</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -545,19 +641,164 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>332</v>
+        <v>534</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>85861</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>531</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>85586</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>181</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>85316</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>238</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>84943</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>179</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>84864</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>177</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
